--- a/data/trans_orig/Hacinamiento_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Hacinamiento_R-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>10881</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4951</v>
+        <v>5055</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19478</v>
+        <v>19864</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03985662642617654</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01813507260419134</v>
+        <v>0.01851694677020699</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07134661083023157</v>
+        <v>0.07276039842757413</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -765,19 +765,19 @@
         <v>7574</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2740</v>
+        <v>3085</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15359</v>
+        <v>16308</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02903718827050163</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01050496378924566</v>
+        <v>0.01182555248520332</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05888285082926882</v>
+        <v>0.06252254399601856</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -786,19 +786,19 @@
         <v>18455</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10115</v>
+        <v>10563</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29516</v>
+        <v>30014</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03457025009557603</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01894722274219245</v>
+        <v>0.01978700008373767</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05528877011019603</v>
+        <v>0.05622209064469999</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>262129</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>253532</v>
+        <v>253146</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>268059</v>
+        <v>267955</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9601433735738235</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9286533891697679</v>
+        <v>0.9272396015724258</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9818649273958086</v>
+        <v>0.9814830532297929</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>238</v>
@@ -836,19 +836,19 @@
         <v>253264</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>245479</v>
+        <v>244530</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>258098</v>
+        <v>257753</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9709628117294984</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9411171491707316</v>
+        <v>0.9374774560039814</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9894950362107545</v>
+        <v>0.9881744475147967</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>500</v>
@@ -857,19 +857,19 @@
         <v>515393</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>504332</v>
+        <v>503834</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>523733</v>
+        <v>523285</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.965429749904424</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9447112298898042</v>
+        <v>0.9437779093553004</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9810527772578076</v>
+        <v>0.9802129999162624</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>27703</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18554</v>
+        <v>18321</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39362</v>
+        <v>40834</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05618352074323332</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03762979546942142</v>
+        <v>0.03715565735318226</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07983011508661236</v>
+        <v>0.08281488661063549</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>41</v>
@@ -982,19 +982,19 @@
         <v>40658</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30376</v>
+        <v>29867</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>54336</v>
+        <v>54475</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0806796028494543</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06027609934865018</v>
+        <v>0.05926678732167406</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1078203570731276</v>
+        <v>0.1080956329851503</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>67</v>
@@ -1003,19 +1003,19 @@
         <v>68361</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>53877</v>
+        <v>54189</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>84511</v>
+        <v>85324</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06856514390443182</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05403830534960219</v>
+        <v>0.05435032839723753</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08476334775725598</v>
+        <v>0.08557841022019372</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>465372</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>453713</v>
+        <v>452241</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>474521</v>
+        <v>474754</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9438164792567667</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9201698849133869</v>
+        <v>0.9171851133893646</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9623702045305785</v>
+        <v>0.9628443426468177</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>458</v>
@@ -1053,19 +1053,19 @@
         <v>463291</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>449613</v>
+        <v>449474</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>473573</v>
+        <v>474082</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9193203971505457</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8921796429268724</v>
+        <v>0.8919043670148499</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9397239006513503</v>
+        <v>0.9407332126783259</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>897</v>
@@ -1074,19 +1074,19 @@
         <v>928663</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>912513</v>
+        <v>911700</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>943147</v>
+        <v>942835</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9314348560955682</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.915236652242744</v>
+        <v>0.9144215897798063</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9459616946503978</v>
+        <v>0.9456496716027625</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>23966</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15210</v>
+        <v>15140</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36179</v>
+        <v>36008</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07516357588435059</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04770301852131734</v>
+        <v>0.04748488176920739</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1134679928092412</v>
+        <v>0.112930992155215</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -1199,19 +1199,19 @@
         <v>22666</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14616</v>
+        <v>14482</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34566</v>
+        <v>33270</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06757710870162763</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04357520890503363</v>
+        <v>0.04317709135463988</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1030559832771719</v>
+        <v>0.09919019367435372</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -1220,19 +1220,19 @@
         <v>46632</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34471</v>
+        <v>35330</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>61944</v>
+        <v>62461</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07127429599486125</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05268773166812153</v>
+        <v>0.05400021738082325</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0946783926057979</v>
+        <v>0.09546867050151235</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>294880</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>282667</v>
+        <v>282838</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>303636</v>
+        <v>303706</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9248364241156494</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8865320071907586</v>
+        <v>0.887069007844785</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9522969814786826</v>
+        <v>0.9525151182307926</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>314</v>
@@ -1270,19 +1270,19 @@
         <v>312746</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>300846</v>
+        <v>302142</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>320796</v>
+        <v>320930</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9324228912983724</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8969440167228276</v>
+        <v>0.9008098063256461</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9564247910949664</v>
+        <v>0.9568229086453601</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>603</v>
@@ -1291,19 +1291,19 @@
         <v>607626</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>592314</v>
+        <v>591797</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>619787</v>
+        <v>618928</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9287257040051388</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9053216073942022</v>
+        <v>0.9045313294984875</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9473122683318785</v>
+        <v>0.9459997826191767</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>8536</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3617</v>
+        <v>3718</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17609</v>
+        <v>18416</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02387025430546291</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01011494379915364</v>
+        <v>0.01039770851489336</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0492394322211854</v>
+        <v>0.05149606754346832</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -1416,19 +1416,19 @@
         <v>13295</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7265</v>
+        <v>7711</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21923</v>
+        <v>22807</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03579212137772292</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01955704899318439</v>
+        <v>0.02075986558953611</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05901819380609191</v>
+        <v>0.06139874913711241</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>20</v>
@@ -1437,19 +1437,19 @@
         <v>21832</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13388</v>
+        <v>13295</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>32898</v>
+        <v>32223</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02994436559890875</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01836329992703685</v>
+        <v>0.01823538977903188</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04512395821803771</v>
+        <v>0.04419706340186465</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>349077</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>340004</v>
+        <v>339197</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>353996</v>
+        <v>353895</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9761297456945371</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9507605677788141</v>
+        <v>0.9485039324565313</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9898850562008461</v>
+        <v>0.9896022914851066</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>371</v>
@@ -1487,19 +1487,19 @@
         <v>358161</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>349533</v>
+        <v>348649</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>364191</v>
+        <v>363745</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9642078786222771</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9409818061939083</v>
+        <v>0.9386012508628877</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.980442951006816</v>
+        <v>0.9792401344104641</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>725</v>
@@ -1508,19 +1508,19 @@
         <v>707237</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>696171</v>
+        <v>696846</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>715681</v>
+        <v>715774</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9700556344010912</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9548760417819623</v>
+        <v>0.9558029365981353</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9816367000729631</v>
+        <v>0.9817646102209681</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>6823</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2506</v>
+        <v>2807</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14105</v>
+        <v>13801</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03413285132981526</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01253445450374558</v>
+        <v>0.01404303181407485</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07056190939581217</v>
+        <v>0.06904255772611612</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1633,19 +1633,19 @@
         <v>10731</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5800</v>
+        <v>5624</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19093</v>
+        <v>19138</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0531891545205929</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02874682037215695</v>
+        <v>0.02787807377281451</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09463526924126869</v>
+        <v>0.09485916363549314</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -1654,19 +1654,19 @@
         <v>17554</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10568</v>
+        <v>10587</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28192</v>
+        <v>28164</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04370502105060039</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02631246866338271</v>
+        <v>0.02635930607682581</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0701909298699947</v>
+        <v>0.07012018227478492</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>193073</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>185791</v>
+        <v>186095</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>197390</v>
+        <v>197089</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9658671486701847</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9294380906041878</v>
+        <v>0.9309574422738839</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9874655454962544</v>
+        <v>0.9859569681859252</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>182</v>
@@ -1704,19 +1704,19 @@
         <v>191020</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>182658</v>
+        <v>182613</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>195951</v>
+        <v>196127</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9468108454794071</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9053647307587314</v>
+        <v>0.9051408363645069</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9712531796278434</v>
+        <v>0.9721219262271857</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>379</v>
@@ -1725,19 +1725,19 @@
         <v>384093</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>373455</v>
+        <v>373483</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>391079</v>
+        <v>391060</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9562949789493996</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9298090701300052</v>
+        <v>0.9298798177252151</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9736875313366172</v>
+        <v>0.9736406939231742</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>4618</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1753</v>
+        <v>1748</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12091</v>
+        <v>12839</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01711665128133491</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006498896150517395</v>
+        <v>0.006477563785699404</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04481664043922248</v>
+        <v>0.04758810788232568</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -1850,19 +1850,19 @@
         <v>8875</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4833</v>
+        <v>4767</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15892</v>
+        <v>17780</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03190739496725307</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01737614557081876</v>
+        <v>0.0171397790886655</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05713712524186817</v>
+        <v>0.06392383574501835</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>13</v>
@@ -1871,19 +1871,19 @@
         <v>13493</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7610</v>
+        <v>7773</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>22554</v>
+        <v>22788</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02462475013973892</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01388931791792704</v>
+        <v>0.01418519283123012</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04116183765393852</v>
+        <v>0.04158915088604916</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>265174</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>257701</v>
+        <v>256953</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>268039</v>
+        <v>268044</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9828833487186651</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9551833595607776</v>
+        <v>0.9524118921176743</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9935011038494825</v>
+        <v>0.9935224362143006</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>261</v>
@@ -1921,19 +1921,19 @@
         <v>269269</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>262252</v>
+        <v>260364</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>273311</v>
+        <v>273377</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.968092605032747</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9428628747581319</v>
+        <v>0.9360761642549817</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9826238544291813</v>
+        <v>0.9828602209113345</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>522</v>
@@ -1942,19 +1942,19 @@
         <v>534443</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>525382</v>
+        <v>525148</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>540326</v>
+        <v>540163</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.975375249860261</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9588381623460627</v>
+        <v>0.9584108491139502</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9861106820820731</v>
+        <v>0.9858148071687699</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>31361</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21446</v>
+        <v>21974</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44386</v>
+        <v>44495</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05107387856171008</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0349264671198519</v>
+        <v>0.03578643692503092</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07228476743596604</v>
+        <v>0.07246300128488031</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>47</v>
@@ -2067,19 +2067,19 @@
         <v>54350</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>40250</v>
+        <v>40709</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>70423</v>
+        <v>69711</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0851585672548854</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06306538904810033</v>
+        <v>0.06378463941750809</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1103427244175075</v>
+        <v>0.1092268075998748</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>77</v>
@@ -2088,19 +2088,19 @@
         <v>85711</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>67942</v>
+        <v>67108</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>106760</v>
+        <v>105263</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06844526499972058</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05425535521288478</v>
+        <v>0.05358942283030937</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0852542326231983</v>
+        <v>0.08405859355303547</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>582680</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>569655</v>
+        <v>569546</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>592595</v>
+        <v>592067</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9489261214382899</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9277152325640339</v>
+        <v>0.9275369987151195</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9650735328801481</v>
+        <v>0.9642135630749691</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>574</v>
@@ -2138,19 +2138,19 @@
         <v>583869</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>567796</v>
+        <v>568508</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>597969</v>
+        <v>597510</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9148414327451146</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8896572755824924</v>
+        <v>0.8907731924001251</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9369346109518997</v>
+        <v>0.9362153605824919</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1141</v>
@@ -2159,19 +2159,19 @@
         <v>1166549</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1145500</v>
+        <v>1146997</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1184318</v>
+        <v>1185152</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9315547350002794</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9147457673768017</v>
+        <v>0.9159414064469645</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9457446447871152</v>
+        <v>0.9464105771696906</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>43418</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>31793</v>
+        <v>32835</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>56396</v>
+        <v>57823</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05868555563602842</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04297235192003018</v>
+        <v>0.04438020147017376</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07622608815875924</v>
+        <v>0.07815535654901364</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>40</v>
@@ -2284,19 +2284,19 @@
         <v>42910</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>31280</v>
+        <v>31703</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>57871</v>
+        <v>56526</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05497689396013715</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04007580528834825</v>
+        <v>0.04061804541694974</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07414466255185434</v>
+        <v>0.07242198333360951</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>83</v>
@@ -2305,19 +2305,19 @@
         <v>86329</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>69522</v>
+        <v>70425</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>105238</v>
+        <v>105703</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05678162828334113</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04572703077035117</v>
+        <v>0.04632104974423473</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06921909345700789</v>
+        <v>0.06952501410167791</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>696431</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>683453</v>
+        <v>682026</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>708056</v>
+        <v>707014</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9413144443639716</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9237739118412407</v>
+        <v>0.9218446434509864</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9570276480799699</v>
+        <v>0.9556197985298263</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>702</v>
@@ -2355,19 +2355,19 @@
         <v>737603</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>722642</v>
+        <v>723987</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>749233</v>
+        <v>748810</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9450231060398628</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9258553374481452</v>
+        <v>0.9275780166663904</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9599241947116516</v>
+        <v>0.9593819545830501</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1391</v>
@@ -2376,19 +2376,19 @@
         <v>1434032</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1415123</v>
+        <v>1414658</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1450839</v>
+        <v>1449936</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9432183717166589</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9307809065429922</v>
+        <v>0.9304749858983221</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9542729692296488</v>
+        <v>0.9536789502557653</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>157307</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>132449</v>
+        <v>135597</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>182510</v>
+        <v>184140</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04816314961248738</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04055222725945101</v>
+        <v>0.04151607047531067</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05587957405910527</v>
+        <v>0.05637873244903176</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>188</v>
@@ -2501,19 +2501,19 @@
         <v>201060</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>174375</v>
+        <v>173679</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>230564</v>
+        <v>231061</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05965660651832618</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05173895366247423</v>
+        <v>0.05153256432590372</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06841080906021105</v>
+        <v>0.06855843117732992</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>334</v>
@@ -2522,19 +2522,19 @@
         <v>358366</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>320295</v>
+        <v>317890</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>397336</v>
+        <v>393194</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05400007460570384</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04826339422890741</v>
+        <v>0.04790087883121463</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05987213360179742</v>
+        <v>0.05924802034955488</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3108815</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3083612</v>
+        <v>3081982</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3133673</v>
+        <v>3130525</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9518368503875126</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9441204259408947</v>
+        <v>0.9436212675509682</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.959447772740549</v>
+        <v>0.9584839295246893</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3100</v>
@@ -2572,19 +2572,19 @@
         <v>3169222</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3139718</v>
+        <v>3139221</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3195907</v>
+        <v>3196603</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9403433934816738</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9315891909397891</v>
+        <v>0.9314415688226703</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9482610463375258</v>
+        <v>0.9484674356740966</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6158</v>
@@ -2593,19 +2593,19 @@
         <v>6278038</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6239068</v>
+        <v>6243210</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6316109</v>
+        <v>6318514</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9459999253942961</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9401278663982022</v>
+        <v>0.9407519796504451</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9517366057710924</v>
+        <v>0.9520991211687854</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>21735</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13372</v>
+        <v>13695</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32832</v>
+        <v>34297</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07427869430771379</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04570027442266807</v>
+        <v>0.04680469776710696</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1122050301248652</v>
+        <v>0.1172126448141981</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -2962,19 +2962,19 @@
         <v>21871</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14304</v>
+        <v>13325</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32771</v>
+        <v>33039</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07728177509060249</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05054414652703924</v>
+        <v>0.04708185190089672</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.115795993749348</v>
+        <v>0.1167411798665322</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>41</v>
@@ -2983,19 +2983,19 @@
         <v>43606</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32024</v>
+        <v>32494</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>58536</v>
+        <v>57954</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07575519246994404</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05563463089130825</v>
+        <v>0.05645137268213964</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1016923101431391</v>
+        <v>0.1006818117448799</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>270874</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>259777</v>
+        <v>258312</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>279237</v>
+        <v>278914</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9257213056922862</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8877949698751347</v>
+        <v>0.8827873551858019</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9542997255773319</v>
+        <v>0.9531953022328929</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>232</v>
@@ -3033,19 +3033,19 @@
         <v>261138</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>250238</v>
+        <v>249970</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>268705</v>
+        <v>269684</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9227182249093975</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8842040062506528</v>
+        <v>0.8832588201334679</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9494558534729609</v>
+        <v>0.9529181480991034</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>491</v>
@@ -3054,19 +3054,19 @@
         <v>532012</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>517082</v>
+        <v>517664</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>543594</v>
+        <v>543124</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.924244807530056</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8983076898568607</v>
+        <v>0.8993181882551199</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9443653691086917</v>
+        <v>0.9435486273178603</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>35174</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24908</v>
+        <v>24003</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49801</v>
+        <v>48947</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06986117331428082</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04947173224577244</v>
+        <v>0.04767288387606968</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09891314412827112</v>
+        <v>0.09721570797288889</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -3179,19 +3179,19 @@
         <v>28340</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18839</v>
+        <v>19148</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38269</v>
+        <v>39765</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05453242470420935</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03625030900178401</v>
+        <v>0.03684615653125619</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07363905074892786</v>
+        <v>0.07651811659878235</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>61</v>
@@ -3200,19 +3200,19 @@
         <v>63514</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>49634</v>
+        <v>49280</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>82218</v>
+        <v>82547</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06207543870484064</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04851000388284982</v>
+        <v>0.04816389771349579</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08035598542765714</v>
+        <v>0.08067743296326978</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>468310</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>453683</v>
+        <v>454537</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>478576</v>
+        <v>479481</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9301388266857192</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.901086855871729</v>
+        <v>0.9027842920271112</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9505282677542276</v>
+        <v>0.9523271161239305</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>449</v>
@@ -3250,19 +3250,19 @@
         <v>491346</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>481417</v>
+        <v>479921</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>500847</v>
+        <v>500538</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9454675752957906</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.926360949251072</v>
+        <v>0.9234818834012175</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9637496909982159</v>
+        <v>0.9631538434687438</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>886</v>
@@ -3271,19 +3271,19 @@
         <v>959656</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>940952</v>
+        <v>940623</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>973536</v>
+        <v>973890</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9379245612951593</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9196440145723428</v>
+        <v>0.9193225670367301</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9514899961171501</v>
+        <v>0.9518361022865042</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>11599</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5930</v>
+        <v>6179</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19185</v>
+        <v>19025</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03579470281209819</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01830121429438412</v>
+        <v>0.01906905447470846</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05920460633874679</v>
+        <v>0.05871107377135068</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -3396,19 +3396,19 @@
         <v>15150</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8105</v>
+        <v>8637</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23741</v>
+        <v>24749</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04442631583214963</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02376603871631921</v>
+        <v>0.02532593957764948</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06961616746840628</v>
+        <v>0.07257387735055539</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -3417,19 +3417,19 @@
         <v>26749</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17820</v>
+        <v>18350</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38711</v>
+        <v>39564</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04022065858636832</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02679412941688903</v>
+        <v>0.0275912177120227</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05820567401629241</v>
+        <v>0.05948862867463602</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>312447</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>304861</v>
+        <v>305021</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>318116</v>
+        <v>317867</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9642052971879018</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.940795393661253</v>
+        <v>0.9412889262286491</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9816987857056159</v>
+        <v>0.9809309455252903</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>303</v>
@@ -3467,19 +3467,19 @@
         <v>325870</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>317279</v>
+        <v>316271</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>332915</v>
+        <v>332383</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9555736841678504</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9303838325315937</v>
+        <v>0.9274261226494447</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9762339612836808</v>
+        <v>0.9746740604223507</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>610</v>
@@ -3488,19 +3488,19 @@
         <v>638317</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>626355</v>
+        <v>625502</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>647246</v>
+        <v>646716</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9597793414136316</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9417943259837075</v>
+        <v>0.940511371325364</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.973205870583111</v>
+        <v>0.9724087822879773</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>15419</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8848</v>
+        <v>9025</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25028</v>
+        <v>24775</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04180925375081358</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02398991818821975</v>
+        <v>0.02447013019422257</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06786379006035247</v>
+        <v>0.06717714330502342</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -3613,19 +3613,19 @@
         <v>13220</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7572</v>
+        <v>7039</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21764</v>
+        <v>21158</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03417540607960048</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01957369215659567</v>
+        <v>0.01819560444619696</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0562620259191222</v>
+        <v>0.05469560928999996</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>28</v>
@@ -3634,19 +3634,19 @@
         <v>28640</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19616</v>
+        <v>19816</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>40785</v>
+        <v>41125</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03790124795475958</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02595971533512125</v>
+        <v>0.02622433322106377</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05397478516426252</v>
+        <v>0.05442397714458735</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>353384</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>343775</v>
+        <v>344028</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>359955</v>
+        <v>359778</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9581907462491864</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9321362099396475</v>
+        <v>0.9328228566949767</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9760100818117802</v>
+        <v>0.9755298698057774</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>356</v>
@@ -3684,19 +3684,19 @@
         <v>373615</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>365071</v>
+        <v>365677</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>379263</v>
+        <v>379796</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9658245939203995</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9437379740808778</v>
+        <v>0.9453043907100001</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9804263078434043</v>
+        <v>0.9818043955538031</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>680</v>
@@ -3705,19 +3705,19 @@
         <v>726998</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>714853</v>
+        <v>714513</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>736022</v>
+        <v>735822</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9620987520452404</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9460252148357374</v>
+        <v>0.9455760228554126</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9740402846648787</v>
+        <v>0.9737756667789362</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>8149</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3955</v>
+        <v>4003</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15421</v>
+        <v>15870</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03832852548201198</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01859970488699335</v>
+        <v>0.01882705965482965</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07253011781725552</v>
+        <v>0.07464136287750325</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -3830,19 +3830,19 @@
         <v>13378</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7434</v>
+        <v>7587</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21223</v>
+        <v>21097</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06092154534020241</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03385202785262784</v>
+        <v>0.03455088102719489</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0966483107834142</v>
+        <v>0.0960729749015715</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -3851,19 +3851,19 @@
         <v>21527</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13335</v>
+        <v>13773</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>31621</v>
+        <v>32005</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04980728546111941</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03085260736639964</v>
+        <v>0.03186575830531493</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07316146365045989</v>
+        <v>0.07405016556163257</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>204469</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>197197</v>
+        <v>196748</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>208663</v>
+        <v>208615</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9616714745179881</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9274698821827445</v>
+        <v>0.925358637122497</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9814002951130066</v>
+        <v>0.9811729403451703</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>198</v>
@@ -3901,19 +3901,19 @@
         <v>206213</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>198368</v>
+        <v>198494</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>212157</v>
+        <v>212004</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9390784546597976</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9033516892165859</v>
+        <v>0.9039270250984281</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9661479721473722</v>
+        <v>0.9654491189728051</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>386</v>
@@ -3922,19 +3922,19 @@
         <v>410682</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>400588</v>
+        <v>400204</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>418874</v>
+        <v>418436</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9501927145388805</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9268385363495399</v>
+        <v>0.925949834438367</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9691473926336001</v>
+        <v>0.968134241694685</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>5128</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1978</v>
+        <v>1974</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11044</v>
+        <v>11452</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01871709690919055</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007219864184854598</v>
+        <v>0.007203358306767104</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04030794314245021</v>
+        <v>0.0417997821292838</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -4047,19 +4047,19 @@
         <v>10669</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5763</v>
+        <v>5768</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18555</v>
+        <v>17724</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03824057525668127</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02065820746176847</v>
+        <v>0.02067646712518462</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06650769149444309</v>
+        <v>0.06352972596300901</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -4068,19 +4068,19 @@
         <v>15797</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8945</v>
+        <v>9750</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>24991</v>
+        <v>24874</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02856716926472145</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01617605664835491</v>
+        <v>0.01763229353599741</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04519488189097697</v>
+        <v>0.04498296980009952</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>268853</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>262937</v>
+        <v>262529</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>272003</v>
+        <v>272007</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9812829030908095</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9596920568575499</v>
+        <v>0.9582002178707162</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9927801358151455</v>
+        <v>0.9927966416932329</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>257</v>
@@ -4118,19 +4118,19 @@
         <v>268316</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>260430</v>
+        <v>261261</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>273222</v>
+        <v>273217</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9617594247433188</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.933492308505557</v>
+        <v>0.9364702740369909</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9793417925382316</v>
+        <v>0.9793235328748153</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>513</v>
@@ -4139,19 +4139,19 @@
         <v>537169</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>527975</v>
+        <v>528092</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>544021</v>
+        <v>543216</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9714328307352785</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9548051181090231</v>
+        <v>0.955017030199901</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9838239433516451</v>
+        <v>0.9823677064640026</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>30828</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21117</v>
+        <v>20759</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44096</v>
+        <v>45344</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04674536233876329</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03202062365829111</v>
+        <v>0.03147720146059262</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06686405863512553</v>
+        <v>0.06875677847918928</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>57</v>
@@ -4264,19 +4264,19 @@
         <v>63690</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>49276</v>
+        <v>48988</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>81449</v>
+        <v>81781</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09206711054366515</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0712308277414187</v>
+        <v>0.07081418475068621</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1177377312948405</v>
+        <v>0.1182181746349229</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>85</v>
@@ -4285,19 +4285,19 @@
         <v>94518</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>76778</v>
+        <v>75477</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>114654</v>
+        <v>114272</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06994789997296492</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05681932020981538</v>
+        <v>0.05585705732368541</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08484944059231289</v>
+        <v>0.08456709924726509</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>628652</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>615384</v>
+        <v>614136</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>638363</v>
+        <v>638721</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9532546376612367</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9331359413648744</v>
+        <v>0.9312432215208103</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9679793763417089</v>
+        <v>0.9685227985394073</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>577</v>
@@ -4335,19 +4335,19 @@
         <v>628090</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>610331</v>
+        <v>609999</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>642504</v>
+        <v>642792</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9079328894563349</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8822622687051593</v>
+        <v>0.881781825365077</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9287691722585809</v>
+        <v>0.9291858152493135</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1164</v>
@@ -4356,19 +4356,19 @@
         <v>1256742</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1236606</v>
+        <v>1236988</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1274482</v>
+        <v>1275783</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9300521000270351</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9151505594076871</v>
+        <v>0.915432900752735</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9431806797901846</v>
+        <v>0.9441429426763146</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>34318</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>23790</v>
+        <v>24387</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>47571</v>
+        <v>47136</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04404826452871986</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03053532799241685</v>
+        <v>0.03130197016509197</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06105941330946717</v>
+        <v>0.06050042189614438</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>49</v>
@@ -4481,19 +4481,19 @@
         <v>53381</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>40779</v>
+        <v>40097</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>70032</v>
+        <v>70393</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0648785403936611</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04956308264409288</v>
+        <v>0.04873374530843356</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08511611950444443</v>
+        <v>0.08555565110580346</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>82</v>
@@ -4502,19 +4502,19 @@
         <v>87698</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>70471</v>
+        <v>70208</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>108768</v>
+        <v>106718</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05474739122725736</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04399302722374795</v>
+        <v>0.04382846534468152</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06790022886751752</v>
+        <v>0.06662074690529868</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>744780</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>731527</v>
+        <v>731962</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>755308</v>
+        <v>754711</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9559517354712801</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9389405866905328</v>
+        <v>0.9394995781038558</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9694646720075832</v>
+        <v>0.968698029834908</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>707</v>
@@ -4552,19 +4552,19 @@
         <v>769395</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>752744</v>
+        <v>752383</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>781997</v>
+        <v>782679</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9351214596063389</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.914883880495556</v>
+        <v>0.9144443488941968</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9504369173559072</v>
+        <v>0.9512662546915666</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1391</v>
@@ -4573,19 +4573,19 @@
         <v>1514177</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1493107</v>
+        <v>1495157</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1531404</v>
+        <v>1531667</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9452526087727426</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9320997711324824</v>
+        <v>0.9333792530947014</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9560069727762519</v>
+        <v>0.9561715346553185</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>162350</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>137136</v>
+        <v>137018</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>188015</v>
+        <v>189349</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04755256521183986</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04016744845961875</v>
+        <v>0.04013265442900916</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05506976343677429</v>
+        <v>0.05546055452612214</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>206</v>
@@ -4698,19 +4698,19 @@
         <v>219699</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>187897</v>
+        <v>193448</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>248679</v>
+        <v>254305</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06199730902972931</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05302306005495679</v>
+        <v>0.05458954365165943</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07017522778640328</v>
+        <v>0.07176294956434134</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>361</v>
@@ -4719,19 +4719,19 @@
         <v>382049</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>350124</v>
+        <v>344937</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>425742</v>
+        <v>420211</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05490942457244943</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05032109394903201</v>
+        <v>0.04957551096586398</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06118918531158693</v>
+        <v>0.06039417955419019</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3251770</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3226105</v>
+        <v>3224771</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3276984</v>
+        <v>3277102</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9524474347881602</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9449302365632257</v>
+        <v>0.9445394454738778</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9598325515403813</v>
+        <v>0.9598673455709908</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3079</v>
@@ -4769,19 +4769,19 @@
         <v>3323982</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3295002</v>
+        <v>3289376</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3355784</v>
+        <v>3350233</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9380026909702707</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9298247722135967</v>
+        <v>0.9282370504356587</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9469769399450433</v>
+        <v>0.9454104563483405</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6121</v>
@@ -4790,19 +4790,19 @@
         <v>6575752</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6532059</v>
+        <v>6537590</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6607677</v>
+        <v>6612864</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9450905754275506</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9388108146884129</v>
+        <v>0.9396058204458096</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9496789060509679</v>
+        <v>0.9504244890341359</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>24849</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15813</v>
+        <v>15218</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38337</v>
+        <v>36434</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08487502353480743</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05401217683533655</v>
+        <v>0.05198007646808097</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1309452657675839</v>
+        <v>0.1244453401612395</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -5159,19 +5159,19 @@
         <v>22923</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14691</v>
+        <v>14117</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34874</v>
+        <v>33835</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0800280652592901</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05128878103140459</v>
+        <v>0.04928467874584384</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1217506747326328</v>
+        <v>0.1181232229749621</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>41</v>
@@ -5180,19 +5180,19 @@
         <v>47773</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>35686</v>
+        <v>35920</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63378</v>
+        <v>64399</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08247804277717591</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06161151111783292</v>
+        <v>0.06201458205842793</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1094208231541385</v>
+        <v>0.1111824049374335</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>267925</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>254437</v>
+        <v>256340</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>276961</v>
+        <v>277556</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9151249764651925</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8690547342324161</v>
+        <v>0.8755546598387606</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9459878231646635</v>
+        <v>0.948019923531919</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>254</v>
@@ -5230,19 +5230,19 @@
         <v>263518</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>251567</v>
+        <v>252606</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>271750</v>
+        <v>272324</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9199719347407099</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8782493252673669</v>
+        <v>0.8818767770250381</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.948711218968595</v>
+        <v>0.9507153212541563</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>499</v>
@@ -5251,19 +5251,19 @@
         <v>531442</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>515837</v>
+        <v>514816</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>543529</v>
+        <v>543295</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9175219572228241</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8905791768458616</v>
+        <v>0.8888175950625663</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9383884888821672</v>
+        <v>0.9379854179415721</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>34814</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24024</v>
+        <v>25024</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49081</v>
+        <v>47666</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06953245424824475</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04798199796899392</v>
+        <v>0.0499793298852531</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09802542174653331</v>
+        <v>0.09520047381444458</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -5376,19 +5376,19 @@
         <v>35058</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25153</v>
+        <v>24934</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49014</v>
+        <v>48621</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0670209439498437</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04808684851370428</v>
+        <v>0.04766640663113515</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09370142462311068</v>
+        <v>0.09295004977693454</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>66</v>
@@ -5397,19 +5397,19 @@
         <v>69872</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>54914</v>
+        <v>54804</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>87065</v>
+        <v>87653</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06824923599384258</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05363856255699503</v>
+        <v>0.05353068393519556</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08504278554428016</v>
+        <v>0.08561740050803707</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>465880</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>451613</v>
+        <v>453028</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>476670</v>
+        <v>475670</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9304675457517553</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9019745782534672</v>
+        <v>0.9047995261855555</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9520180020310062</v>
+        <v>0.9500206701147469</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>450</v>
@@ -5447,19 +5447,19 @@
         <v>488026</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>474070</v>
+        <v>474463</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>497931</v>
+        <v>498150</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9329790560501563</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.906298575376889</v>
+        <v>0.9070499502230653</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9519131514862957</v>
+        <v>0.9523335933688648</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>891</v>
@@ -5468,19 +5468,19 @@
         <v>953906</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>936713</v>
+        <v>936125</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>968864</v>
+        <v>968974</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9317507640061574</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9149572144557199</v>
+        <v>0.9143825994919631</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9463614374430054</v>
+        <v>0.9464693160648046</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>5304</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1863</v>
+        <v>1775</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11531</v>
+        <v>12071</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01689661795458086</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005935936892953222</v>
+        <v>0.005653108150700848</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03673273873561917</v>
+        <v>0.03845274649438606</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -5593,19 +5593,19 @@
         <v>13897</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8345</v>
+        <v>7946</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22265</v>
+        <v>21778</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04231728590361222</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02541133349090923</v>
+        <v>0.02419761165592751</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06779932551564853</v>
+        <v>0.06631697992229142</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -5614,19 +5614,19 @@
         <v>19201</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11272</v>
+        <v>11934</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28992</v>
+        <v>29301</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02989348057667581</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01755013050942058</v>
+        <v>0.01857944722843348</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04513760651635357</v>
+        <v>0.04561934867082189</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>308607</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>302380</v>
+        <v>301840</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>312048</v>
+        <v>312136</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9831033820454191</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9632672612643808</v>
+        <v>0.961547253505614</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9940640631070468</v>
+        <v>0.9943468918492991</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>310</v>
@@ -5664,19 +5664,19 @@
         <v>314494</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>306126</v>
+        <v>306613</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>320046</v>
+        <v>320445</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9576827140963878</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9322006744843515</v>
+        <v>0.9336830200777085</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9745886665090908</v>
+        <v>0.9758023883440725</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>635</v>
@@ -5685,19 +5685,19 @@
         <v>623101</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>613310</v>
+        <v>613001</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>631030</v>
+        <v>630368</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9701065194233242</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9548623934836465</v>
+        <v>0.9543806513291783</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9824498694905794</v>
+        <v>0.9814205527715667</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>29314</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19573</v>
+        <v>18362</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41972</v>
+        <v>41487</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07959046522563031</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05314304089517012</v>
+        <v>0.04985561673649966</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1139581795139439</v>
+        <v>0.1126409217000532</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -5810,19 +5810,19 @@
         <v>20694</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13207</v>
+        <v>13252</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29993</v>
+        <v>29721</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05343460894399878</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03410266813619083</v>
+        <v>0.0342168099121194</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07744464768122797</v>
+        <v>0.07674184998751812</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>47</v>
@@ -5831,19 +5831,19 @@
         <v>50008</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37326</v>
+        <v>37023</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>66150</v>
+        <v>64331</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06618413830143613</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04939905959751303</v>
+        <v>0.04899841544977734</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08754714817380767</v>
+        <v>0.08514024059900198</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>338995</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>326337</v>
+        <v>326822</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>348736</v>
+        <v>349947</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9204095347743697</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8860418204860562</v>
+        <v>0.8873590782999469</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9468569591048299</v>
+        <v>0.9501443832635005</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>337</v>
@@ -5881,19 +5881,19 @@
         <v>366589</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>357290</v>
+        <v>357562</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>374076</v>
+        <v>374031</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9465653910560012</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9225553523187724</v>
+        <v>0.9232581500124819</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9658973318638092</v>
+        <v>0.9657831900878806</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>664</v>
@@ -5902,19 +5902,19 @@
         <v>705584</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>689442</v>
+        <v>691261</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>718266</v>
+        <v>718569</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9338158616985639</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9124528518261924</v>
+        <v>0.9148597594009981</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.950600940402487</v>
+        <v>0.9510015845502227</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>5867</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2652</v>
+        <v>2228</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12298</v>
+        <v>11637</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02804781981848651</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01267564486377972</v>
+        <v>0.01065153866618292</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05879138800453125</v>
+        <v>0.0556305897805942</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -6027,19 +6027,19 @@
         <v>7149</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3551</v>
+        <v>3436</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13502</v>
+        <v>13937</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03285679659368845</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0163205647073371</v>
+        <v>0.01579227581525613</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0620534990557856</v>
+        <v>0.0640507136164017</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -6048,19 +6048,19 @@
         <v>13016</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7778</v>
+        <v>7704</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21367</v>
+        <v>21323</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03049963974024335</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01822557957317305</v>
+        <v>0.01805104397775812</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05006607406747716</v>
+        <v>0.04996226316366419</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>203319</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>196888</v>
+        <v>197549</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>206534</v>
+        <v>206958</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9719521801815135</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9412086119954682</v>
+        <v>0.9443694102194056</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9873243551362203</v>
+        <v>0.989348461333817</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>214</v>
@@ -6098,19 +6098,19 @@
         <v>210438</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>204085</v>
+        <v>203650</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>214036</v>
+        <v>214151</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9671432034063115</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9379465009442145</v>
+        <v>0.9359492863835985</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9836794352926629</v>
+        <v>0.9842077241847439</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>418</v>
@@ -6119,19 +6119,19 @@
         <v>413757</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>405406</v>
+        <v>405450</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>418995</v>
+        <v>419069</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9695003602597566</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9499339259325229</v>
+        <v>0.9500377368363359</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9817744204268271</v>
+        <v>0.981948956022242</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>2937</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7810</v>
+        <v>7770</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01116298668101228</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00360615642357792</v>
+        <v>0.003629912427063477</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02968168728305363</v>
+        <v>0.02953119761396086</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -6247,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6181</v>
+        <v>6158</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.006476207487519919</v>
@@ -6256,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02270679669490129</v>
+        <v>0.02262366069057314</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -6265,19 +6265,19 @@
         <v>4700</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1819</v>
+        <v>1823</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10189</v>
+        <v>11286</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.008779826115846066</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0033979068626167</v>
+        <v>0.003404569823064414</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01903329687037849</v>
+        <v>0.02108265054816497</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>260186</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>255313</v>
+        <v>255353</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>262174</v>
+        <v>262168</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9888370133189878</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9703183127169464</v>
+        <v>0.9704688023860392</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9963938435764221</v>
+        <v>0.9963700875729365</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>260</v>
@@ -6315,7 +6315,7 @@
         <v>270445</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>266027</v>
+        <v>266050</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>272208</v>
@@ -6324,7 +6324,7 @@
         <v>0.9935237925124801</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9772932033050987</v>
+        <v>0.9773763393094267</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -6336,19 +6336,19 @@
         <v>530631</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>525142</v>
+        <v>524045</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>533512</v>
+        <v>533508</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.991220173884154</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9809667031296221</v>
+        <v>0.9789173494518351</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9966020931373833</v>
+        <v>0.9965954301769356</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>20351</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11795</v>
+        <v>11780</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29959</v>
+        <v>30218</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03129566226327646</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01813837553048745</v>
+        <v>0.01811487026723675</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04607107832941844</v>
+        <v>0.04647000797701727</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>24</v>
@@ -6461,19 +6461,19 @@
         <v>26265</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>17475</v>
+        <v>17567</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>38911</v>
+        <v>38796</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03827570014600779</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02546635904585577</v>
+        <v>0.025600396319785</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05670472976184329</v>
+        <v>0.05653620922350475</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>42</v>
@@ -6482,19 +6482,19 @@
         <v>46616</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>34059</v>
+        <v>34910</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>62868</v>
+        <v>63181</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03487952592786815</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02548431270926415</v>
+        <v>0.02612053489524065</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04703965181061404</v>
+        <v>0.0472743147941069</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>629921</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>620313</v>
+        <v>620054</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>638477</v>
+        <v>638492</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9687043377367235</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9539289216705815</v>
+        <v>0.9535299920229829</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9818616244695128</v>
+        <v>0.9818851297327634</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>617</v>
@@ -6532,19 +6532,19 @@
         <v>659944</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>647298</v>
+        <v>647413</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>668734</v>
+        <v>668642</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9617242998539922</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9432952702381563</v>
+        <v>0.9434637907764948</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9745336409541441</v>
+        <v>0.9743996036802149</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1174</v>
@@ -6553,19 +6553,19 @@
         <v>1289865</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1273613</v>
+        <v>1273300</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1302422</v>
+        <v>1301571</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9651204740721319</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9529603481893859</v>
+        <v>0.952725685205893</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9745156872907358</v>
+        <v>0.9738794651047593</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>21687</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12536</v>
+        <v>13383</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>32398</v>
+        <v>31889</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02792034638191265</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01613973808517414</v>
+        <v>0.01723034631380077</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04171045885904712</v>
+        <v>0.04105541860095571</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>30</v>
@@ -6678,19 +6678,19 @@
         <v>32566</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22736</v>
+        <v>22919</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>46526</v>
+        <v>46098</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0394730382196753</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02755839940116201</v>
+        <v>0.02777991936242717</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0563950520403819</v>
+        <v>0.05587579214444204</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>50</v>
@@ -6699,19 +6699,19 @@
         <v>54252</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>40030</v>
+        <v>41242</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>70964</v>
+        <v>71785</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03387078050120734</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02499154188707006</v>
+        <v>0.02574803544374515</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04430438592528355</v>
+        <v>0.04481665897152137</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>755048</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>744337</v>
+        <v>744846</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>764199</v>
+        <v>763352</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9720796536180873</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9582895411409532</v>
+        <v>0.9589445813990455</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9838602619148261</v>
+        <v>0.9827696536861994</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>724</v>
@@ -6749,19 +6749,19 @@
         <v>792442</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>778482</v>
+        <v>778910</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>802272</v>
+        <v>802089</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9605269617803247</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9436049479596181</v>
+        <v>0.9441242078555578</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9724416005988378</v>
+        <v>0.9722200806375728</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1452</v>
@@ -6770,19 +6770,19 @@
         <v>1547491</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1530779</v>
+        <v>1529958</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1561713</v>
+        <v>1560501</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9661292194987927</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9556956140747161</v>
+        <v>0.9551833410284783</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9750084581129297</v>
+        <v>0.9742519645562547</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>145123</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>124673</v>
+        <v>122463</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>172077</v>
+        <v>169352</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04299949685167812</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03694020866890367</v>
+        <v>0.03628535554080529</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05098573309205656</v>
+        <v>0.05017824328809463</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>155</v>
@@ -6895,19 +6895,19 @@
         <v>160315</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>137019</v>
+        <v>138272</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>188711</v>
+        <v>187796</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04546370200966916</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.038857200067521</v>
+        <v>0.0392127204652896</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0535166411330987</v>
+        <v>0.05325709353075194</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>285</v>
@@ -6916,19 +6916,19 @@
         <v>305438</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>273672</v>
+        <v>270316</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>343029</v>
+        <v>341497</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0442585949944832</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03965567644738178</v>
+        <v>0.03916936580052433</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04970562566045438</v>
+        <v>0.0494836400468465</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3229881</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3202927</v>
+        <v>3205652</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3250331</v>
+        <v>3252541</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9570005031483219</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9490142669079434</v>
+        <v>0.9498217567119054</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9630597913310963</v>
+        <v>0.9637146444591946</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3166</v>
@@ -6966,19 +6966,19 @@
         <v>3365896</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3337500</v>
+        <v>3338415</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3389192</v>
+        <v>3387939</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9545362979903308</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9464833588669013</v>
+        <v>0.9467429064692477</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.961142799932479</v>
+        <v>0.9607872795347103</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6249</v>
@@ -6987,19 +6987,19 @@
         <v>6595778</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6558187</v>
+        <v>6559719</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6627544</v>
+        <v>6630900</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9557414050055169</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9502943743395456</v>
+        <v>0.9505163599531535</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9603443235526182</v>
+        <v>0.9608306341994756</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>4726</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1752</v>
+        <v>1788</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10570</v>
+        <v>10676</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01482286651472202</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005494357838727886</v>
+        <v>0.005607806746835231</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0331507378980266</v>
+        <v>0.03348224758260613</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -7356,19 +7356,19 @@
         <v>13000</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6327</v>
+        <v>6324</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27082</v>
+        <v>25877</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04113175864058932</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02001699927392294</v>
+        <v>0.02000935325959897</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0856875483668228</v>
+        <v>0.08187400317160017</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -7377,19 +7377,19 @@
         <v>17726</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9687</v>
+        <v>9807</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31396</v>
+        <v>32085</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02791961840509282</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0152580619046785</v>
+        <v>0.01544661595274296</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04944936464626746</v>
+        <v>0.05053567809156478</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>314119</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>308275</v>
+        <v>308169</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>317093</v>
+        <v>317057</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.985177133485278</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9668492621019734</v>
+        <v>0.9665177524173937</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.994505642161272</v>
+        <v>0.9943921932531647</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>526</v>
@@ -7427,19 +7427,19 @@
         <v>303061</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>288979</v>
+        <v>290184</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>309734</v>
+        <v>309737</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9588682413594107</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9143124516331773</v>
+        <v>0.9181259968284005</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.979983000726077</v>
+        <v>0.9799906467404012</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>852</v>
@@ -7448,19 +7448,19 @@
         <v>617180</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>603510</v>
+        <v>602821</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>625219</v>
+        <v>625099</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9720803815949072</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9505506353537331</v>
+        <v>0.9494643219084351</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9847419380953217</v>
+        <v>0.9845533840472569</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>26232</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15771</v>
+        <v>15080</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44426</v>
+        <v>45302</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04954689012150902</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02978897526417836</v>
+        <v>0.0284825140225274</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0839118554245538</v>
+        <v>0.08556754301589681</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -7573,19 +7573,19 @@
         <v>23289</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15108</v>
+        <v>14688</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37166</v>
+        <v>34818</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04286598268617305</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0278075033479486</v>
+        <v>0.02703498110577146</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06840913393517843</v>
+        <v>0.06408686391908718</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>43</v>
@@ -7594,19 +7594,19 @@
         <v>49520</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>35326</v>
+        <v>35109</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>69963</v>
+        <v>68178</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.046163287316408</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0329312321508092</v>
+        <v>0.03272887332900633</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06522020509330713</v>
+        <v>0.06355617531382006</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>503201</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>485007</v>
+        <v>484131</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>513662</v>
+        <v>514353</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9504531098784909</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.916088144575446</v>
+        <v>0.9144324569841024</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9702110247358218</v>
+        <v>0.9715174859774722</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>688</v>
@@ -7644,19 +7644,19 @@
         <v>520000</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>506123</v>
+        <v>508471</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>528181</v>
+        <v>528601</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9571340173138269</v>
+        <v>0.957134017313827</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9315908660648216</v>
+        <v>0.9359131360809128</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9721924966520514</v>
+        <v>0.9729650188942285</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1051</v>
@@ -7665,19 +7665,19 @@
         <v>1023202</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1002759</v>
+        <v>1004544</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1037396</v>
+        <v>1037613</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9538367126835919</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9347797949066933</v>
+        <v>0.9364438246861797</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.967068767849191</v>
+        <v>0.9672711266709932</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>14802</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8327</v>
+        <v>8378</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25244</v>
+        <v>23869</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04853817718845847</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02730318349364435</v>
+        <v>0.02747209857185594</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08277766177265602</v>
+        <v>0.07826674755797595</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -7790,19 +7790,19 @@
         <v>16395</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9756</v>
+        <v>10016</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26335</v>
+        <v>26288</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04760140625213227</v>
+        <v>0.04760140625213228</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02832598861451828</v>
+        <v>0.02907935117133142</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07646213470065771</v>
+        <v>0.07632442338289716</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>33</v>
@@ -7811,19 +7811,19 @@
         <v>31197</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21940</v>
+        <v>21594</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45036</v>
+        <v>42467</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04804133368945997</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03378553025567078</v>
+        <v>0.03325355080860641</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06935187369550294</v>
+        <v>0.06539559420504513</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>290163</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>279721</v>
+        <v>281096</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>296638</v>
+        <v>296587</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9514618228115417</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9172223382273443</v>
+        <v>0.9217332524420241</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9726968165063556</v>
+        <v>0.972527901428144</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>497</v>
@@ -7861,19 +7861,19 @@
         <v>328025</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>318085</v>
+        <v>318132</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>334664</v>
+        <v>334404</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9523985937478676</v>
+        <v>0.9523985937478678</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9235378652993425</v>
+        <v>0.9236755766171028</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9716740113854817</v>
+        <v>0.9709206488286686</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>828</v>
@@ -7882,19 +7882,19 @@
         <v>618188</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>604349</v>
+        <v>606918</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>627445</v>
+        <v>627791</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.95195866631054</v>
+        <v>0.9519586663105398</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.930648126304496</v>
+        <v>0.9346044057949547</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9662144697443292</v>
+        <v>0.9667464491913935</v>
       </c>
     </row>
     <row r="12">
@@ -7989,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12045</v>
+        <v>12455</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01009490279069022</v>
@@ -7998,7 +7998,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0323538244186339</v>
+        <v>0.03345597777257207</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -8007,19 +8007,19 @@
         <v>4953</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1880</v>
+        <v>1866</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10474</v>
+        <v>10942</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01184611647799591</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004496572384351241</v>
+        <v>0.004464269198650964</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02505089356221401</v>
+        <v>0.02617148804645577</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -8028,19 +8028,19 @@
         <v>8711</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3778</v>
+        <v>3853</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18698</v>
+        <v>18754</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01102125127334828</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004780082910709157</v>
+        <v>0.00487482101461114</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02365733514995013</v>
+        <v>0.02372703815303155</v>
       </c>
     </row>
     <row r="14">
@@ -8057,7 +8057,7 @@
         <v>368534</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>360247</v>
+        <v>359837</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>372292</v>
@@ -8066,7 +8066,7 @@
         <v>0.98990509720931</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9676461755813649</v>
+        <v>0.9665440222274291</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -8078,19 +8078,19 @@
         <v>413142</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>407621</v>
+        <v>407153</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>416215</v>
+        <v>416229</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9881538835220041</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.974949106437786</v>
+        <v>0.9738285119535445</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9955034276156488</v>
+        <v>0.9955357308013491</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>879</v>
@@ -8099,19 +8099,19 @@
         <v>781676</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>771689</v>
+        <v>771633</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>786609</v>
+        <v>786534</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9889787487266518</v>
+        <v>0.9889787487266519</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9763426648500503</v>
+        <v>0.9762729618469688</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9952199170892909</v>
+        <v>0.995125178985389</v>
       </c>
     </row>
     <row r="15">
@@ -8216,19 +8216,19 @@
         <v>1773</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4164</v>
+        <v>4057</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007743021280824538</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001960076904718365</v>
+        <v>0.001918597461775086</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01819149762044866</v>
+        <v>0.01772420450324746</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -8240,16 +8240,16 @@
         <v>443</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4855</v>
+        <v>4214</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.00407866066825136</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00101897908926469</v>
+        <v>0.001018741881301631</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01117127630157204</v>
+        <v>0.009697376791019622</v>
       </c>
     </row>
     <row r="17">
@@ -8279,19 +8279,19 @@
         <v>227145</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>224754</v>
+        <v>224861</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>228469</v>
+        <v>228479</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9922569787191755</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9818085023795513</v>
+        <v>0.9822757954967526</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9980399230952817</v>
+        <v>0.9980814025382249</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>770</v>
@@ -8300,19 +8300,19 @@
         <v>432809</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>429727</v>
+        <v>430368</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>434139</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9959213393317485</v>
+        <v>0.9959213393317489</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9888287236984279</v>
+        <v>0.9903026232089799</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9989810209107355</v>
+        <v>0.9989812581186982</v>
       </c>
     </row>
     <row r="18">
@@ -8404,19 +8404,19 @@
         <v>9251</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4514</v>
+        <v>4714</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16828</v>
+        <v>16422</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.03428133596122819</v>
+        <v>0.03428133596122818</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01672767235397003</v>
+        <v>0.01746874505632843</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06235608443855228</v>
+        <v>0.06085142491388019</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -8425,19 +8425,19 @@
         <v>7206</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3435</v>
+        <v>3718</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13666</v>
+        <v>13384</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.02732018458977616</v>
+        <v>0.02732018458977615</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01302368450953597</v>
+        <v>0.01409670158216792</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05181518877563396</v>
+        <v>0.05074674912095385</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -8446,19 +8446,19 @@
         <v>16457</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9837</v>
+        <v>10196</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>26682</v>
+        <v>25512</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.03084067235740847</v>
+        <v>0.03084067235740848</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01843458128704748</v>
+        <v>0.01910659771981765</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05000155577007205</v>
+        <v>0.04780885014447273</v>
       </c>
     </row>
     <row r="20">
@@ -8475,19 +8475,19 @@
         <v>260618</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>253041</v>
+        <v>253447</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>265355</v>
+        <v>265155</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.965718664038772</v>
+        <v>0.9657186640387717</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9376439155614475</v>
+        <v>0.9391485750861198</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9832723276460299</v>
+        <v>0.9825312549436717</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>451</v>
@@ -8496,19 +8496,19 @@
         <v>256544</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>250084</v>
+        <v>250366</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>260315</v>
+        <v>260032</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.972679815410224</v>
+        <v>0.9726798154102235</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9481848112243659</v>
+        <v>0.9492532508790459</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9869763154904641</v>
+        <v>0.9859032984178318</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>811</v>
@@ -8517,19 +8517,19 @@
         <v>517163</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>506938</v>
+        <v>508108</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>523783</v>
+        <v>523424</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9691593276425915</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9499984442299277</v>
+        <v>0.9521911498555273</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9815654187129523</v>
+        <v>0.9808934022801823</v>
       </c>
     </row>
     <row r="21">
@@ -8621,19 +8621,19 @@
         <v>29543</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20222</v>
+        <v>19918</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>42305</v>
+        <v>42836</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04157072694318988</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02845577160340119</v>
+        <v>0.02802756297361083</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05952986054097061</v>
+        <v>0.06027611491857166</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>46</v>
@@ -8642,19 +8642,19 @@
         <v>38182</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>28544</v>
+        <v>28717</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>50429</v>
+        <v>52146</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04998902825765083</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03737020441706712</v>
+        <v>0.03759649653357041</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06602311326429969</v>
+        <v>0.06827137035769679</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>73</v>
@@ -8663,19 +8663,19 @@
         <v>67725</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>53560</v>
+        <v>52778</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>82912</v>
+        <v>86134</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04593159991281026</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03632471999279841</v>
+        <v>0.03579483774103827</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05623148501288996</v>
+        <v>0.05841708073844314</v>
       </c>
     </row>
     <row r="23">
@@ -8692,19 +8692,19 @@
         <v>681117</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>668355</v>
+        <v>667824</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>690438</v>
+        <v>690742</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.95842927305681</v>
+        <v>0.9584292730568101</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9404701394590294</v>
+        <v>0.9397238850814286</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9715442283965988</v>
+        <v>0.9719724370263892</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>904</v>
@@ -8713,19 +8713,19 @@
         <v>725627</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>713380</v>
+        <v>711663</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>735265</v>
+        <v>735092</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9500109717423492</v>
+        <v>0.9500109717423491</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9339768867357006</v>
+        <v>0.9317286296423031</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.962629795582933</v>
+        <v>0.9624035034664297</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1471</v>
@@ -8734,19 +8734,19 @@
         <v>1406744</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1391557</v>
+        <v>1388335</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1420909</v>
+        <v>1421691</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9540684000871897</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9437685149871096</v>
+        <v>0.9415829192615567</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9636752800072015</v>
+        <v>0.9642051622589617</v>
       </c>
     </row>
     <row r="24">
@@ -8838,19 +8838,19 @@
         <v>8052</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3465</v>
+        <v>3263</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>17492</v>
+        <v>17771</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01016850065549859</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004375757155540809</v>
+        <v>0.004120562712354851</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02209088633796343</v>
+        <v>0.02244245158132877</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>19</v>
@@ -8859,19 +8859,19 @@
         <v>15814</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9745</v>
+        <v>9379</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>23896</v>
+        <v>23854</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.01925247260967481</v>
+        <v>0.01925247260967482</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01186414703992608</v>
+        <v>0.01141838664370634</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02909125800894792</v>
+        <v>0.02904003548517872</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>26</v>
@@ -8880,19 +8880,19 @@
         <v>23866</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>16537</v>
+        <v>15667</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>36183</v>
+        <v>35929</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01479371711576245</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01025106732445804</v>
+        <v>0.009711217023301308</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02242872820531962</v>
+        <v>0.02227152005623098</v>
       </c>
     </row>
     <row r="26">
@@ -8909,19 +8909,19 @@
         <v>783789</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>774349</v>
+        <v>774070</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>788376</v>
+        <v>788578</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9898314993445013</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9779091136620373</v>
+        <v>0.9775575484186713</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9956242428444594</v>
+        <v>0.9958794372876453</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1029</v>
@@ -8930,19 +8930,19 @@
         <v>805589</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>797507</v>
+        <v>797549</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>811658</v>
+        <v>812024</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.980747527390325</v>
+        <v>0.9807475273903252</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9709087419910519</v>
+        <v>0.9709599645148208</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9881358529600739</v>
+        <v>0.9885816133562937</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1779</v>
@@ -8951,19 +8951,19 @@
         <v>1589378</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1577061</v>
+        <v>1577315</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1596707</v>
+        <v>1597577</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9852062828842376</v>
+        <v>0.9852062828842375</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9775712717946804</v>
+        <v>0.9777284799437688</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.989748932675542</v>
+        <v>0.9902887829766986</v>
       </c>
     </row>
     <row r="27">
@@ -9055,19 +9055,19 @@
         <v>96365</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>78253</v>
+        <v>76510</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>121449</v>
+        <v>120594</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.02750468997002447</v>
+        <v>0.02750468997002446</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02233523904975048</v>
+        <v>0.02183776636509726</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03466438735374289</v>
+        <v>0.03442042464479673</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>139</v>
@@ -9076,19 +9076,19 @@
         <v>120611</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>99280</v>
+        <v>102561</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>143275</v>
+        <v>145399</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0325997497704075</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0268343685801086</v>
+        <v>0.02772099117759414</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03872562781317904</v>
+        <v>0.03929960356799132</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>222</v>
@@ -9097,19 +9097,19 @@
         <v>216975</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>188773</v>
+        <v>187419</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>250274</v>
+        <v>253072</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.03012159912093358</v>
+        <v>0.03012159912093359</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02620641083927847</v>
+        <v>0.02601844872632015</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03474425246465321</v>
+        <v>0.03513277695113132</v>
       </c>
     </row>
     <row r="29">
@@ -9126,19 +9126,19 @@
         <v>3407205</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3382121</v>
+        <v>3382976</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3425317</v>
+        <v>3427060</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9724953100299756</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.965335612646257</v>
+        <v>0.9655795753552036</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9776647609502496</v>
+        <v>0.9781622336349031</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5176</v>
@@ -9147,19 +9147,19 @@
         <v>3579134</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3556470</v>
+        <v>3554346</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3600465</v>
+        <v>3597184</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9674002502295925</v>
+        <v>0.9674002502295924</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.961274372186821</v>
+        <v>0.9607003964320087</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9731656314198912</v>
+        <v>0.9722790088224058</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8441</v>
@@ -9168,19 +9168,19 @@
         <v>6986341</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6953042</v>
+        <v>6950244</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7014543</v>
+        <v>7015897</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9698784008790664</v>
+        <v>0.9698784008790665</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9652557475353469</v>
+        <v>0.9648672230488688</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.973793589160722</v>
+        <v>0.9739815512736799</v>
       </c>
     </row>
     <row r="30">
